--- a/data/Fig_4.xlsx
+++ b/data/Fig_4.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10504"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B0EC8C-4114-5F40-A21C-69F5C09E74CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Epidemic_curve" sheetId="1" r:id="rId1"/>
-    <sheet name="Hospitalized_and_CFR" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig_4a" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig_4b" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -73,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,21 +410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.02734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.01171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44561</v>
       </c>
@@ -438,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>44562</v>
       </c>
@@ -452,7 +463,7 @@
         <v>1.3333333329999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44563</v>
       </c>
@@ -466,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44564</v>
       </c>
@@ -480,7 +491,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44565</v>
       </c>
@@ -494,7 +505,7 @@
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44566</v>
       </c>
@@ -508,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44567</v>
       </c>
@@ -522,7 +533,7 @@
         <v>5.3333333329999997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>44568</v>
       </c>
@@ -536,7 +547,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44569</v>
       </c>
@@ -550,7 +561,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44570</v>
       </c>
@@ -564,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44571</v>
       </c>
@@ -578,7 +589,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44572</v>
       </c>
@@ -592,7 +603,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44573</v>
       </c>
@@ -606,7 +617,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44574</v>
       </c>
@@ -620,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44575</v>
       </c>
@@ -634,7 +645,7 @@
         <v>3.6666666669999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44576</v>
       </c>
@@ -648,7 +659,7 @@
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44577</v>
       </c>
@@ -662,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>44578</v>
       </c>
@@ -676,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44579</v>
       </c>
@@ -690,7 +701,7 @@
         <v>7.3333333329999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44580</v>
       </c>
@@ -704,7 +715,7 @@
         <v>9.3333333330000006</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44581</v>
       </c>
@@ -718,7 +729,7 @@
         <v>11.66666667</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44582</v>
       </c>
@@ -732,7 +743,7 @@
         <v>17.666666670000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44583</v>
       </c>
@@ -746,7 +757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>44584</v>
       </c>
@@ -760,7 +771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44585</v>
       </c>
@@ -774,7 +785,7 @@
         <v>106.33333330000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44586</v>
       </c>
@@ -788,7 +799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>44587</v>
       </c>
@@ -802,7 +813,7 @@
         <v>103.66666669999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>44588</v>
       </c>
@@ -816,7 +827,7 @@
         <v>109.33333330000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>44589</v>
       </c>
@@ -830,7 +841,7 @@
         <v>104.33333330000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>44590</v>
       </c>
@@ -844,7 +855,7 @@
         <v>91.333333330000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>44591</v>
       </c>
@@ -858,7 +869,7 @@
         <v>81.333333330000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>44592</v>
       </c>
@@ -872,7 +883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>44593</v>
       </c>
@@ -886,7 +897,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>44594</v>
       </c>
@@ -900,7 +911,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>44595</v>
       </c>
@@ -914,7 +925,7 @@
         <v>129.66666670000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>44596</v>
       </c>
@@ -928,7 +939,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>44597</v>
       </c>
@@ -942,7 +953,7 @@
         <v>274.66666670000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>44598</v>
       </c>
@@ -956,7 +967,7 @@
         <v>435.66666670000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>44599</v>
       </c>
@@ -970,7 +981,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>44600</v>
       </c>
@@ -984,7 +995,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>44601</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>44602</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>1157.333333</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>44603</v>
       </c>
@@ -1026,7 +1037,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44604</v>
       </c>
@@ -1040,7 +1051,7 @@
         <v>1395.333333</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>44605</v>
       </c>
@@ -1054,7 +1065,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>44606</v>
       </c>
@@ -1068,7 +1079,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>44607</v>
       </c>
@@ -1082,7 +1093,7 @@
         <v>2658.333333</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>44608</v>
       </c>
@@ -1096,7 +1107,7 @@
         <v>4023.666667</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>44609</v>
       </c>
@@ -1110,7 +1121,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>44610</v>
       </c>
@@ -1124,7 +1135,7 @@
         <v>5491.3333329999996</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>44611</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>44612</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>7077.3333329999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>44613</v>
       </c>
@@ -1166,7 +1177,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>44614</v>
       </c>
@@ -1180,7 +1191,7 @@
         <v>12527.333329999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>44615</v>
       </c>
@@ -1194,7 +1205,7 @@
         <v>18066.666669999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>44616</v>
       </c>
@@ -1208,7 +1219,7 @@
         <v>19189.333330000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>44617</v>
       </c>
@@ -1222,7 +1233,7 @@
         <v>27702.333330000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>44618</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>34277.666669999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>44619</v>
       </c>
@@ -1250,7 +1261,7 @@
         <v>49182.666669999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>44620</v>
       </c>
@@ -1264,7 +1275,7 @@
         <v>52159.666669999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>44621</v>
       </c>
@@ -1278,7 +1289,7 @@
         <v>62725.666669999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>44622</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>69663.333329999994</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>44623</v>
       </c>
@@ -1306,7 +1317,7 @@
         <v>75338</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>44624</v>
       </c>
@@ -1320,7 +1331,7 @@
         <v>72418.666670000006</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>44625</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>60022</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>44626</v>
       </c>
@@ -1348,7 +1359,7 @@
         <v>47926.333330000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>44627</v>
       </c>
@@ -1362,7 +1373,7 @@
         <v>38315.666669999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>44628</v>
       </c>
@@ -1376,7 +1387,7 @@
         <v>35202.333330000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>44629</v>
       </c>
@@ -1390,7 +1401,7 @@
         <v>33538</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>44630</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>30414.666669999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>44631</v>
       </c>
@@ -1418,7 +1429,7 @@
         <v>29476.666669999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>44632</v>
       </c>
@@ -1432,7 +1443,7 @@
         <v>29819.333330000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>44633</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>28995</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>44634</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>29034.333330000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>44635</v>
       </c>
@@ -1474,7 +1485,7 @@
         <v>27981.666669999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>44636</v>
       </c>
@@ -1488,7 +1499,7 @@
         <v>26229</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>44637</v>
       </c>
@@ -1502,7 +1513,7 @@
         <v>23668</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>44638</v>
       </c>
@@ -1516,7 +1527,7 @@
         <v>19443</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>44639</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>16942.666669999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>44640</v>
       </c>
@@ -1544,7 +1555,7 @@
         <v>14938</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>44641</v>
       </c>
@@ -1558,7 +1569,7 @@
         <v>14123</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>44642</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>13486.666670000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>44643</v>
       </c>
@@ -1586,7 +1597,7 @@
         <v>13155.333329999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>44644</v>
       </c>
@@ -1607,22 +1618,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.56640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.94921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1634,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1673,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1687,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1690,7 +1701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1704,7 +1715,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1729,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1757,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>

--- a/data/Fig_4.xlsx
+++ b/data/Fig_4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B0EC8C-4114-5F40-A21C-69F5C09E74CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84DF8B-14B2-4D20-9E60-DF77ECED3AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_4a" sheetId="1" r:id="rId1"/>
     <sheet name="Fig_4b" sheetId="2" r:id="rId2"/>
+    <sheet name="Figure" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -22,8 +23,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -146,6 +147,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207264</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F49ED10-8BA2-4BA2-8D07-B9635E570AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8741664" cy="7306056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,14 +473,14 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.01171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44561</v>
       </c>
@@ -449,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44562</v>
       </c>
@@ -463,7 +519,7 @@
         <v>1.3333333329999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44563</v>
       </c>
@@ -477,7 +533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44564</v>
       </c>
@@ -491,7 +547,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44565</v>
       </c>
@@ -505,7 +561,7 @@
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44566</v>
       </c>
@@ -519,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44567</v>
       </c>
@@ -533,7 +589,7 @@
         <v>5.3333333329999997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44568</v>
       </c>
@@ -547,7 +603,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44569</v>
       </c>
@@ -561,7 +617,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44570</v>
       </c>
@@ -575,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44571</v>
       </c>
@@ -589,7 +645,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44572</v>
       </c>
@@ -603,7 +659,7 @@
         <v>6.3333333329999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44573</v>
       </c>
@@ -617,7 +673,7 @@
         <v>6.6666666670000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44574</v>
       </c>
@@ -631,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44575</v>
       </c>
@@ -645,7 +701,7 @@
         <v>3.6666666669999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44576</v>
       </c>
@@ -659,7 +715,7 @@
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44577</v>
       </c>
@@ -673,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44578</v>
       </c>
@@ -687,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44579</v>
       </c>
@@ -701,7 +757,7 @@
         <v>7.3333333329999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44580</v>
       </c>
@@ -715,7 +771,7 @@
         <v>9.3333333330000006</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44581</v>
       </c>
@@ -729,7 +785,7 @@
         <v>11.66666667</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44582</v>
       </c>
@@ -743,7 +799,7 @@
         <v>17.666666670000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44583</v>
       </c>
@@ -757,7 +813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44584</v>
       </c>
@@ -771,7 +827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44585</v>
       </c>
@@ -785,7 +841,7 @@
         <v>106.33333330000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44586</v>
       </c>
@@ -799,7 +855,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44587</v>
       </c>
@@ -813,7 +869,7 @@
         <v>103.66666669999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44588</v>
       </c>
@@ -827,7 +883,7 @@
         <v>109.33333330000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44589</v>
       </c>
@@ -841,7 +897,7 @@
         <v>104.33333330000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44590</v>
       </c>
@@ -855,7 +911,7 @@
         <v>91.333333330000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44591</v>
       </c>
@@ -869,7 +925,7 @@
         <v>81.333333330000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44592</v>
       </c>
@@ -883,7 +939,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44593</v>
       </c>
@@ -897,7 +953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44594</v>
       </c>
@@ -911,7 +967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44595</v>
       </c>
@@ -925,7 +981,7 @@
         <v>129.66666670000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44596</v>
       </c>
@@ -939,7 +995,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44597</v>
       </c>
@@ -953,7 +1009,7 @@
         <v>274.66666670000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44598</v>
       </c>
@@ -967,7 +1023,7 @@
         <v>435.66666670000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44599</v>
       </c>
@@ -981,7 +1037,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44600</v>
       </c>
@@ -995,7 +1051,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44601</v>
       </c>
@@ -1009,7 +1065,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44602</v>
       </c>
@@ -1023,7 +1079,7 @@
         <v>1157.333333</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44603</v>
       </c>
@@ -1037,7 +1093,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44604</v>
       </c>
@@ -1051,7 +1107,7 @@
         <v>1395.333333</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44605</v>
       </c>
@@ -1065,7 +1121,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44606</v>
       </c>
@@ -1079,7 +1135,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44607</v>
       </c>
@@ -1093,7 +1149,7 @@
         <v>2658.333333</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44608</v>
       </c>
@@ -1107,7 +1163,7 @@
         <v>4023.666667</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44609</v>
       </c>
@@ -1121,7 +1177,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44610</v>
       </c>
@@ -1135,7 +1191,7 @@
         <v>5491.3333329999996</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44611</v>
       </c>
@@ -1149,7 +1205,7 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44612</v>
       </c>
@@ -1163,7 +1219,7 @@
         <v>7077.3333329999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44613</v>
       </c>
@@ -1177,7 +1233,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44614</v>
       </c>
@@ -1191,7 +1247,7 @@
         <v>12527.333329999999</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44615</v>
       </c>
@@ -1205,7 +1261,7 @@
         <v>18066.666669999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44616</v>
       </c>
@@ -1219,7 +1275,7 @@
         <v>19189.333330000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44617</v>
       </c>
@@ -1233,7 +1289,7 @@
         <v>27702.333330000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44618</v>
       </c>
@@ -1247,7 +1303,7 @@
         <v>34277.666669999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44619</v>
       </c>
@@ -1261,7 +1317,7 @@
         <v>49182.666669999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44620</v>
       </c>
@@ -1275,7 +1331,7 @@
         <v>52159.666669999999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44621</v>
       </c>
@@ -1289,7 +1345,7 @@
         <v>62725.666669999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44622</v>
       </c>
@@ -1303,7 +1359,7 @@
         <v>69663.333329999994</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44623</v>
       </c>
@@ -1317,7 +1373,7 @@
         <v>75338</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44624</v>
       </c>
@@ -1331,7 +1387,7 @@
         <v>72418.666670000006</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44625</v>
       </c>
@@ -1345,7 +1401,7 @@
         <v>60022</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44626</v>
       </c>
@@ -1359,7 +1415,7 @@
         <v>47926.333330000001</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44627</v>
       </c>
@@ -1373,7 +1429,7 @@
         <v>38315.666669999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44628</v>
       </c>
@@ -1387,7 +1443,7 @@
         <v>35202.333330000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44629</v>
       </c>
@@ -1401,7 +1457,7 @@
         <v>33538</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44630</v>
       </c>
@@ -1415,7 +1471,7 @@
         <v>30414.666669999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44631</v>
       </c>
@@ -1429,7 +1485,7 @@
         <v>29476.666669999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44632</v>
       </c>
@@ -1443,7 +1499,7 @@
         <v>29819.333330000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44633</v>
       </c>
@@ -1457,7 +1513,7 @@
         <v>28995</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44634</v>
       </c>
@@ -1471,7 +1527,7 @@
         <v>29034.333330000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44635</v>
       </c>
@@ -1485,7 +1541,7 @@
         <v>27981.666669999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44636</v>
       </c>
@@ -1499,7 +1555,7 @@
         <v>26229</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44637</v>
       </c>
@@ -1513,7 +1569,7 @@
         <v>23668</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44638</v>
       </c>
@@ -1527,7 +1583,7 @@
         <v>19443</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44639</v>
       </c>
@@ -1541,7 +1597,7 @@
         <v>16942.666669999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44640</v>
       </c>
@@ -1555,7 +1611,7 @@
         <v>14938</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44641</v>
       </c>
@@ -1569,7 +1625,7 @@
         <v>14123</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44642</v>
       </c>
@@ -1583,7 +1639,7 @@
         <v>13486.666670000001</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44643</v>
       </c>
@@ -1597,7 +1653,7 @@
         <v>13155.333329999999</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44644</v>
       </c>
@@ -1621,19 +1677,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.56640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.94921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1645,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1715,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1673,7 +1729,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1743,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1757,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +1771,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1785,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1743,7 +1799,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1757,7 +1813,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1773,5 +1829,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105897B-9954-478E-B0BF-4B37D6EE2AD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Fig_4.xlsx
+++ b/data/Fig_4.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84DF8B-14B2-4D20-9E60-DF77ECED3AC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EAC0D-EC1C-43DC-AF15-1D11E0C6206B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_4a" sheetId="1" r:id="rId1"/>
-    <sheet name="Fig_4b" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig_4b,c" sheetId="2" r:id="rId2"/>
     <sheet name="Figure" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -159,8 +159,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>207264</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600456</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>67056</xdr:rowOff>
     </xdr:to>
@@ -192,7 +192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8741664" cy="7306056"/>
+          <a:ext cx="7306056" cy="7306056"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4105897B-9954-478E-B0BF-4B37D6EE2AD7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
